--- a/source/10.xlsx
+++ b/source/10.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="23180" windowHeight="12020"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="18180" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="530">
+  <si>
+    <t>Clips, surgical</t>
+  </si>
   <si>
     <t>外科用剪</t>
   </si>
   <si>
-    <t>Clips, surgical</t>
-  </si>
-  <si>
     <t>Needles for medical purposes</t>
   </si>
   <si>
@@ -31,7 +31,7 @@
     <t>Suture needles</t>
   </si>
   <si>
-    <t>缝合、针</t>
+    <t>缝合针</t>
   </si>
   <si>
     <t>Hot air therapeutic apparatus</t>
@@ -88,7 +88,7 @@
     <t>医用插管</t>
   </si>
   <si>
-    <t>Appliances for washing body cavities(aaa)</t>
+    <t>Appliances for washing body cavities</t>
   </si>
   <si>
     <t>冲洗体腔装置</t>
@@ -1609,55 +1609,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1666,30 +1632,119 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1697,75 +1752,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1778,192 +1781,179 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1975,8 +1965,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1984,7 +1974,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1994,48 +1984,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2069,153 +2018,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2224,57 +2202,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="42">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2285,7 +2257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2295,39 +2267,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2406,154 +2378,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="61.7857142857143" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2561,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2577,7 +2573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2585,7 +2581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2593,7 +2589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2601,7 +2597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +2605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2617,7 +2613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2625,7 +2621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2633,7 +2629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2641,7 +2637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2649,7 +2645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2657,7 +2653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2665,7 +2661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2673,7 +2669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2681,7 +2677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2689,7 +2685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2697,7 +2693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2705,7 +2701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2713,7 +2709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2721,7 +2717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2729,7 +2725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2737,7 +2733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2745,7 +2741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2753,7 +2749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2761,7 +2757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2769,7 +2765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2777,7 +2773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2785,7 +2781,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2793,7 +2789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2801,7 +2797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2809,7 +2805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2825,7 +2821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2833,7 +2829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2841,7 +2837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2849,7 +2845,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2857,7 +2853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2865,7 +2861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2873,7 +2869,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2881,7 +2877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2889,7 +2885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2897,7 +2893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2905,7 +2901,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2913,7 +2909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -2921,7 +2917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2929,7 +2925,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2937,7 +2933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -2945,7 +2941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -2953,7 +2949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -2961,7 +2957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -2969,7 +2965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -2977,7 +2973,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -2985,7 +2981,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2993,7 +2989,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3001,7 +2997,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3009,7 +3005,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -3017,7 +3013,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -3025,7 +3021,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -3033,7 +3029,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -3041,7 +3037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -3049,7 +3045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -3057,7 +3053,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -3065,7 +3061,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -3073,7 +3069,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -3081,7 +3077,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -3089,7 +3085,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>130</v>
       </c>
@@ -3097,7 +3093,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -3105,7 +3101,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -3113,7 +3109,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -3121,7 +3117,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -3129,7 +3125,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -3137,7 +3133,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>142</v>
       </c>
@@ -3145,7 +3141,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>144</v>
       </c>
@@ -3153,7 +3149,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>146</v>
       </c>
@@ -3161,7 +3157,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -3169,7 +3165,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>150</v>
       </c>
@@ -3177,7 +3173,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -3185,7 +3181,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>154</v>
       </c>
@@ -3193,7 +3189,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -3201,7 +3197,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -3209,7 +3205,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>160</v>
       </c>
@@ -3217,7 +3213,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>162</v>
       </c>
@@ -3225,7 +3221,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -3233,7 +3229,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>166</v>
       </c>
@@ -3241,7 +3237,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>168</v>
       </c>
@@ -3249,7 +3245,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -3257,7 +3253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -3265,7 +3261,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>174</v>
       </c>
@@ -3273,7 +3269,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>176</v>
       </c>
@@ -3281,7 +3277,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>178</v>
       </c>
@@ -3289,7 +3285,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -3297,7 +3293,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>182</v>
       </c>
@@ -3305,7 +3301,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -3313,7 +3309,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>186</v>
       </c>
@@ -3321,7 +3317,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>188</v>
       </c>
@@ -3329,7 +3325,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -3337,7 +3333,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -3345,7 +3341,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>194</v>
       </c>
@@ -3353,7 +3349,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>196</v>
       </c>
@@ -3361,7 +3357,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -3369,7 +3365,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -3377,7 +3373,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -3385,7 +3381,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -3393,7 +3389,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -3401,7 +3397,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>208</v>
       </c>
@@ -3409,7 +3405,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>209</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>211</v>
       </c>
@@ -3425,7 +3421,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -3433,7 +3429,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -3441,7 +3437,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>217</v>
       </c>
@@ -3449,7 +3445,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>219</v>
       </c>
@@ -3457,7 +3453,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>221</v>
       </c>
@@ -3465,7 +3461,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>223</v>
       </c>
@@ -3473,7 +3469,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>225</v>
       </c>
@@ -3481,7 +3477,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>227</v>
       </c>
@@ -3489,7 +3485,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>229</v>
       </c>
@@ -3497,7 +3493,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>231</v>
       </c>
@@ -3505,7 +3501,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>233</v>
       </c>
@@ -3513,7 +3509,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>235</v>
       </c>
@@ -3521,7 +3517,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>237</v>
       </c>
@@ -3529,7 +3525,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>239</v>
       </c>
@@ -3537,7 +3533,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>241</v>
       </c>
@@ -3545,7 +3541,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>242</v>
       </c>
@@ -3553,7 +3549,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>244</v>
       </c>
@@ -3561,7 +3557,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>246</v>
       </c>
@@ -3569,7 +3565,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>248</v>
       </c>
@@ -3577,7 +3573,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>250</v>
       </c>
@@ -3585,7 +3581,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>252</v>
       </c>
@@ -3593,7 +3589,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>254</v>
       </c>
@@ -3601,7 +3597,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>256</v>
       </c>
@@ -3609,7 +3605,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>258</v>
       </c>
@@ -3617,7 +3613,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -3625,7 +3621,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -3633,7 +3629,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>262</v>
       </c>
@@ -3641,7 +3637,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>264</v>
       </c>
@@ -3649,7 +3645,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>266</v>
       </c>
@@ -3657,7 +3653,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>268</v>
       </c>
@@ -3665,7 +3661,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>272</v>
       </c>
@@ -3681,7 +3677,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>274</v>
       </c>
@@ -3689,7 +3685,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>276</v>
       </c>
@@ -3697,7 +3693,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>278</v>
       </c>
@@ -3705,7 +3701,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>280</v>
       </c>
@@ -3713,7 +3709,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>282</v>
       </c>
@@ -3721,7 +3717,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>284</v>
       </c>
@@ -3729,7 +3725,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>286</v>
       </c>
@@ -3737,7 +3733,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>288</v>
       </c>
@@ -3745,7 +3741,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>290</v>
       </c>
@@ -3753,7 +3749,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>292</v>
       </c>
@@ -3761,7 +3757,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>294</v>
       </c>
@@ -3769,7 +3765,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>296</v>
       </c>
@@ -3777,7 +3773,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -3785,7 +3781,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>300</v>
       </c>
@@ -3793,7 +3789,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>302</v>
       </c>
@@ -3801,7 +3797,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>304</v>
       </c>
@@ -3809,7 +3805,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>306</v>
       </c>
@@ -3817,7 +3813,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>308</v>
       </c>
@@ -3825,7 +3821,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>310</v>
       </c>
@@ -3833,7 +3829,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>312</v>
       </c>
@@ -3841,7 +3837,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>314</v>
       </c>
@@ -3849,7 +3845,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>316</v>
       </c>
@@ -3857,7 +3853,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>318</v>
       </c>
@@ -3865,7 +3861,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>320</v>
       </c>
@@ -3873,7 +3869,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>322</v>
       </c>
@@ -3881,7 +3877,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>324</v>
       </c>
@@ -3889,7 +3885,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>326</v>
       </c>
@@ -3897,7 +3893,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>328</v>
       </c>
@@ -3905,7 +3901,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>330</v>
       </c>
@@ -3913,7 +3909,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>331</v>
       </c>
@@ -3921,7 +3917,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>333</v>
       </c>
@@ -3929,7 +3925,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>335</v>
       </c>
@@ -3937,7 +3933,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>336</v>
       </c>
@@ -3945,7 +3941,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>338</v>
       </c>
@@ -3953,7 +3949,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>340</v>
       </c>
@@ -3961,7 +3957,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>342</v>
       </c>
@@ -3969,7 +3965,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>344</v>
       </c>
@@ -3977,7 +3973,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>346</v>
       </c>
@@ -3985,7 +3981,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>348</v>
       </c>
@@ -3993,7 +3989,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>350</v>
       </c>
@@ -4001,7 +3997,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>352</v>
       </c>
@@ -4009,7 +4005,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>354</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>356</v>
       </c>
@@ -4025,7 +4021,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>358</v>
       </c>
@@ -4033,7 +4029,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>360</v>
       </c>
@@ -4041,7 +4037,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>361</v>
       </c>
@@ -4049,7 +4045,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>362</v>
       </c>
@@ -4057,7 +4053,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>364</v>
       </c>
@@ -4065,7 +4061,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>366</v>
       </c>
@@ -4073,7 +4069,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>368</v>
       </c>
@@ -4081,7 +4077,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>370</v>
       </c>
@@ -4089,7 +4085,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>372</v>
       </c>
@@ -4097,7 +4093,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>374</v>
       </c>
@@ -4105,7 +4101,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>376</v>
       </c>
@@ -4113,7 +4109,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>378</v>
       </c>
@@ -4121,7 +4117,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>380</v>
       </c>
@@ -4129,7 +4125,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>382</v>
       </c>
@@ -4137,7 +4133,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>384</v>
       </c>
@@ -4145,7 +4141,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>386</v>
       </c>
@@ -4153,7 +4149,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>388</v>
       </c>
@@ -4161,7 +4157,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>390</v>
       </c>
@@ -4169,7 +4165,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>392</v>
       </c>
@@ -4177,7 +4173,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>394</v>
       </c>
@@ -4185,7 +4181,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>396</v>
       </c>
@@ -4193,7 +4189,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>398</v>
       </c>
@@ -4201,7 +4197,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>400</v>
       </c>
@@ -4209,7 +4205,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>402</v>
       </c>
@@ -4217,7 +4213,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>404</v>
       </c>
@@ -4225,7 +4221,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>406</v>
       </c>
@@ -4233,7 +4229,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>408</v>
       </c>
@@ -4241,7 +4237,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>410</v>
       </c>
@@ -4249,7 +4245,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>412</v>
       </c>
@@ -4257,7 +4253,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>414</v>
       </c>
@@ -4265,7 +4261,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>416</v>
       </c>
@@ -4273,7 +4269,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>418</v>
       </c>
@@ -4281,7 +4277,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>420</v>
       </c>
@@ -4289,7 +4285,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>422</v>
       </c>
@@ -4297,7 +4293,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>423</v>
       </c>
@@ -4305,7 +4301,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>425</v>
       </c>
@@ -4313,7 +4309,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>427</v>
       </c>
@@ -4321,7 +4317,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>428</v>
       </c>
@@ -4329,7 +4325,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>429</v>
       </c>
@@ -4337,7 +4333,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>430</v>
       </c>
@@ -4345,7 +4341,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>432</v>
       </c>
@@ -4353,7 +4349,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>434</v>
       </c>
@@ -4361,7 +4357,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>436</v>
       </c>
@@ -4369,7 +4365,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>438</v>
       </c>
@@ -4377,7 +4373,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>440</v>
       </c>
@@ -4385,7 +4381,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>442</v>
       </c>
@@ -4393,7 +4389,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>444</v>
       </c>
@@ -4401,7 +4397,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>446</v>
       </c>
@@ -4409,7 +4405,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>448</v>
       </c>
@@ -4417,7 +4413,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>450</v>
       </c>
@@ -4425,7 +4421,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>452</v>
       </c>
@@ -4433,7 +4429,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>454</v>
       </c>
@@ -4441,7 +4437,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>456</v>
       </c>
@@ -4449,7 +4445,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>458</v>
       </c>
@@ -4457,7 +4453,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>459</v>
       </c>
@@ -4465,7 +4461,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>461</v>
       </c>
@@ -4473,7 +4469,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>463</v>
       </c>
@@ -4481,7 +4477,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>465</v>
       </c>
@@ -4489,7 +4485,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>467</v>
       </c>
@@ -4497,7 +4493,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>469</v>
       </c>
@@ -4505,7 +4501,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>471</v>
       </c>
@@ -4513,7 +4509,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>473</v>
       </c>
@@ -4521,7 +4517,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>475</v>
       </c>
@@ -4529,7 +4525,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>477</v>
       </c>
@@ -4537,7 +4533,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>478</v>
       </c>
@@ -4545,7 +4541,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>480</v>
       </c>
@@ -4553,7 +4549,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>340</v>
       </c>
@@ -4561,7 +4557,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>483</v>
       </c>
@@ -4569,7 +4565,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>485</v>
       </c>
@@ -4577,7 +4573,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>486</v>
       </c>
@@ -4585,7 +4581,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>488</v>
       </c>
@@ -4593,7 +4589,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>489</v>
       </c>
@@ -4601,7 +4597,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>491</v>
       </c>
@@ -4609,7 +4605,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>493</v>
       </c>
@@ -4617,7 +4613,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>495</v>
       </c>
@@ -4625,7 +4621,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>497</v>
       </c>
@@ -4633,7 +4629,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>498</v>
       </c>
@@ -4641,7 +4637,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>500</v>
       </c>
@@ -4649,7 +4645,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>502</v>
       </c>
@@ -4657,7 +4653,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>504</v>
       </c>
@@ -4665,7 +4661,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>505</v>
       </c>
@@ -4673,7 +4669,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>507</v>
       </c>
@@ -4681,7 +4677,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>509</v>
       </c>
@@ -4689,7 +4685,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>510</v>
       </c>
@@ -4697,7 +4693,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>512</v>
       </c>
@@ -4705,7 +4701,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>513</v>
       </c>
@@ -4713,7 +4709,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>515</v>
       </c>
@@ -4721,7 +4717,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>517</v>
       </c>
@@ -4729,7 +4725,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>519</v>
       </c>
@@ -4737,7 +4733,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>521</v>
       </c>
@@ -4745,7 +4741,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>523</v>
       </c>
@@ -4753,7 +4749,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>524</v>
       </c>
@@ -4761,7 +4757,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>526</v>
       </c>
@@ -4769,7 +4765,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>528</v>
       </c>
@@ -4778,7 +4774,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>